--- a/Config/xlsx/train_val_test_split.xlsx
+++ b/Config/xlsx/train_val_test_split.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlewe\Meine Ablage\LMU\Master\WS_2122\Masterarbeit\thesis_codebase\Data\Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlewe\Meine Ablage\LMU\Master\WS_2122\Masterarbeit\thesis_codebase\Config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A9261B-89FE-4157-87BB-56EB34BEBECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CDE100-A3F4-4230-BCC1-F63FE0DBC5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/xlsx/train_val_test_split.xlsx
+++ b/Config/xlsx/train_val_test_split.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlewe\Meine Ablage\LMU\Master\WS_2122\Masterarbeit\thesis_codebase\Config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7E5D2B-5EF3-422B-8306-5700AE51D9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB8532A-5FAB-4D89-9CF8-513E919E0E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Train" sheetId="1" r:id="rId1"/>
@@ -3198,7 +3198,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3476,21 +3476,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D483"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D302" sqref="D302"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A392" sqref="A392"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="131.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="131.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1031</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3532,7 +3531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3560,7 +3559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>604</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>607</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3644,7 +3643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3672,7 +3671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3700,7 +3699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3742,7 +3741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -3812,7 +3811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3840,7 +3839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -3854,7 +3853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -3910,7 +3909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -3938,7 +3937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -4022,7 +4021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -4050,7 +4049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -4064,7 +4063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -4148,7 +4147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -4190,7 +4189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -4260,7 +4259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -4274,7 +4273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>608</v>
       </c>
@@ -4330,7 +4329,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>610</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>611</v>
       </c>
@@ -4358,7 +4357,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>613</v>
       </c>
@@ -4372,7 +4371,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>615</v>
       </c>
@@ -4386,7 +4385,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>616</v>
       </c>
@@ -4400,7 +4399,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>618</v>
       </c>
@@ -4414,7 +4413,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -4428,7 +4427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>619</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -4456,7 +4455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>620</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>622</v>
       </c>
@@ -4484,7 +4483,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>100</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>623</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>624</v>
       </c>
@@ -4554,7 +4553,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>626</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>628</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>629</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>631</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>105</v>
       </c>
@@ -4624,7 +4623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>107</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>632</v>
       </c>
@@ -4652,7 +4651,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>634</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -4680,7 +4679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>110</v>
       </c>
@@ -4694,7 +4693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>635</v>
       </c>
@@ -4708,7 +4707,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>637</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>111</v>
       </c>
@@ -4736,7 +4735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>638</v>
       </c>
@@ -4764,7 +4763,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>114</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -4792,7 +4791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>117</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>640</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>120</v>
       </c>
@@ -4848,7 +4847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>122</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -4876,7 +4875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>642</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>125</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>644</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>646</v>
       </c>
@@ -4932,7 +4931,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>127</v>
       </c>
@@ -4946,7 +4945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>129</v>
       </c>
@@ -4960,7 +4959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>131</v>
       </c>
@@ -4974,7 +4973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>133</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>135</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>136</v>
       </c>
@@ -5016,7 +5015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>138</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>140</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>141</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>647</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>649</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>143</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>145</v>
       </c>
@@ -5114,7 +5113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>650</v>
       </c>
@@ -5128,7 +5127,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>652</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>146</v>
       </c>
@@ -5156,7 +5155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>148</v>
       </c>
@@ -5170,7 +5169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>653</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>655</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>150</v>
       </c>
@@ -5212,7 +5211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>656</v>
       </c>
@@ -5226,7 +5225,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>658</v>
       </c>
@@ -5240,7 +5239,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>660</v>
       </c>
@@ -5254,7 +5253,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>152</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>154</v>
       </c>
@@ -5282,7 +5281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>155</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>157</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>158</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>160</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>161</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>163</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>164</v>
       </c>
@@ -5380,7 +5379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>166</v>
       </c>
@@ -5394,7 +5393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>168</v>
       </c>
@@ -5408,7 +5407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>170</v>
       </c>
@@ -5422,7 +5421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>172</v>
       </c>
@@ -5436,7 +5435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>174</v>
       </c>
@@ -5450,7 +5449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>176</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>178</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>179</v>
       </c>
@@ -5492,7 +5491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>661</v>
       </c>
@@ -5506,7 +5505,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>663</v>
       </c>
@@ -5520,7 +5519,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>181</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>664</v>
       </c>
@@ -5548,7 +5547,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>183</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>185</v>
       </c>
@@ -5576,7 +5575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>186</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>666</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>667</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>188</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>190</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>192</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>194</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>196</v>
       </c>
@@ -5688,7 +5687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>198</v>
       </c>
@@ -5702,7 +5701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>199</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>201</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>203</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>205</v>
       </c>
@@ -5758,7 +5757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>206</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>208</v>
       </c>
@@ -5786,7 +5785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>210</v>
       </c>
@@ -5800,7 +5799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>211</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>213</v>
       </c>
@@ -5828,7 +5827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>214</v>
       </c>
@@ -5842,7 +5841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>216</v>
       </c>
@@ -5856,7 +5855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>217</v>
       </c>
@@ -5870,7 +5869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>219</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>220</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>222</v>
       </c>
@@ -5912,7 +5911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>224</v>
       </c>
@@ -5926,7 +5925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>669</v>
       </c>
@@ -5940,7 +5939,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>225</v>
       </c>
@@ -5954,7 +5953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>227</v>
       </c>
@@ -5968,7 +5967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>229</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>230</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>670</v>
       </c>
@@ -6010,7 +6009,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>232</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>234</v>
       </c>
@@ -6038,7 +6037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>672</v>
       </c>
@@ -6052,7 +6051,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>236</v>
       </c>
@@ -6066,7 +6065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>238</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>240</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>673</v>
       </c>
@@ -6108,7 +6107,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>242</v>
       </c>
@@ -6122,7 +6121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>244</v>
       </c>
@@ -6136,7 +6135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>246</v>
       </c>
@@ -6150,7 +6149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>248</v>
       </c>
@@ -6164,7 +6163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>249</v>
       </c>
@@ -6178,7 +6177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>251</v>
       </c>
@@ -6192,7 +6191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>253</v>
       </c>
@@ -6206,7 +6205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>254</v>
       </c>
@@ -6220,7 +6219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>256</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>257</v>
       </c>
@@ -6248,7 +6247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>259</v>
       </c>
@@ -6262,7 +6261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>260</v>
       </c>
@@ -6276,7 +6275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>262</v>
       </c>
@@ -6290,7 +6289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>264</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>265</v>
       </c>
@@ -6318,7 +6317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>267</v>
       </c>
@@ -6332,7 +6331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>674</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>268</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>270</v>
       </c>
@@ -6374,7 +6373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>271</v>
       </c>
@@ -6388,7 +6387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>273</v>
       </c>
@@ -6402,7 +6401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>274</v>
       </c>
@@ -6416,7 +6415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>276</v>
       </c>
@@ -6430,7 +6429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>278</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>280</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>281</v>
       </c>
@@ -6472,7 +6471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>283</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>284</v>
       </c>
@@ -6500,7 +6499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>676</v>
       </c>
@@ -6514,7 +6513,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>286</v>
       </c>
@@ -6528,7 +6527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>288</v>
       </c>
@@ -6542,7 +6541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>289</v>
       </c>
@@ -6556,7 +6555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>291</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>292</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>294</v>
       </c>
@@ -6598,7 +6597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>295</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>678</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>297</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>299</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>301</v>
       </c>
@@ -6668,7 +6667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>303</v>
       </c>
@@ -6682,7 +6681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>305</v>
       </c>
@@ -6696,7 +6695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>306</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>308</v>
       </c>
@@ -6724,7 +6723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>309</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>311</v>
       </c>
@@ -6752,7 +6751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>312</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>314</v>
       </c>
@@ -6780,7 +6779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>315</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>317</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>319</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>320</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>322</v>
       </c>
@@ -6850,7 +6849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>324</v>
       </c>
@@ -6864,7 +6863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>326</v>
       </c>
@@ -6878,7 +6877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>328</v>
       </c>
@@ -6892,7 +6891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>329</v>
       </c>
@@ -6906,7 +6905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>331</v>
       </c>
@@ -6920,7 +6919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>333</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>335</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>336</v>
       </c>
@@ -6962,7 +6961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>338</v>
       </c>
@@ -6976,7 +6975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>339</v>
       </c>
@@ -6990,7 +6989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>341</v>
       </c>
@@ -7004,7 +7003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>343</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>344</v>
       </c>
@@ -7032,7 +7031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>346</v>
       </c>
@@ -7046,7 +7045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>347</v>
       </c>
@@ -7060,7 +7059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>349</v>
       </c>
@@ -7074,7 +7073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>351</v>
       </c>
@@ -7088,7 +7087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>353</v>
       </c>
@@ -7102,7 +7101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>355</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>356</v>
       </c>
@@ -7130,7 +7129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>358</v>
       </c>
@@ -7144,7 +7143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>360</v>
       </c>
@@ -7158,7 +7157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>361</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>363</v>
       </c>
@@ -7186,7 +7185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>365</v>
       </c>
@@ -7200,7 +7199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>367</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>368</v>
       </c>
@@ -7228,7 +7227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>370</v>
       </c>
@@ -7242,7 +7241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>679</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>681</v>
       </c>
@@ -7270,7 +7269,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>371</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>373</v>
       </c>
@@ -7298,7 +7297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>683</v>
       </c>
@@ -7312,7 +7311,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>685</v>
       </c>
@@ -7326,7 +7325,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>374</v>
       </c>
@@ -7340,7 +7339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>376</v>
       </c>
@@ -7354,7 +7353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>686</v>
       </c>
@@ -7368,7 +7367,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>688</v>
       </c>
@@ -7382,7 +7381,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>377</v>
       </c>
@@ -7396,7 +7395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>379</v>
       </c>
@@ -7410,7 +7409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>380</v>
       </c>
@@ -7424,7 +7423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>382</v>
       </c>
@@ -7438,7 +7437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>384</v>
       </c>
@@ -7452,7 +7451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>386</v>
       </c>
@@ -7466,7 +7465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>388</v>
       </c>
@@ -7480,7 +7479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>389</v>
       </c>
@@ -7494,7 +7493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>391</v>
       </c>
@@ -7508,7 +7507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>393</v>
       </c>
@@ -7522,7 +7521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>395</v>
       </c>
@@ -7536,7 +7535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>396</v>
       </c>
@@ -7550,7 +7549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>398</v>
       </c>
@@ -7564,7 +7563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1038</v>
       </c>
@@ -7578,7 +7577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1039</v>
       </c>
@@ -7592,7 +7591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>399</v>
       </c>
@@ -7606,7 +7605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>401</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>403</v>
       </c>
@@ -7634,7 +7633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>404</v>
       </c>
@@ -7648,7 +7647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>406</v>
       </c>
@@ -7662,7 +7661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>407</v>
       </c>
@@ -7676,7 +7675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>409</v>
       </c>
@@ -7690,7 +7689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>410</v>
       </c>
@@ -7704,7 +7703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>690</v>
       </c>
@@ -7718,7 +7717,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>412</v>
       </c>
@@ -7732,7 +7731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>414</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>415</v>
       </c>
@@ -7760,7 +7759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>417</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>418</v>
       </c>
@@ -7788,7 +7787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>420</v>
       </c>
@@ -7802,7 +7801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>421</v>
       </c>
@@ -7816,7 +7815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>423</v>
       </c>
@@ -7830,7 +7829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>424</v>
       </c>
@@ -7844,7 +7843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>426</v>
       </c>
@@ -7858,7 +7857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>428</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>430</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>691</v>
       </c>
@@ -7900,7 +7899,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>693</v>
       </c>
@@ -7914,7 +7913,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>694</v>
       </c>
@@ -7928,7 +7927,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>431</v>
       </c>
@@ -7942,7 +7941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>695</v>
       </c>
@@ -7956,7 +7955,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>433</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>435</v>
       </c>
@@ -7984,7 +7983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>436</v>
       </c>
@@ -7998,7 +7997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>697</v>
       </c>
@@ -8012,7 +8011,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>438</v>
       </c>
@@ -8026,7 +8025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>440</v>
       </c>
@@ -8040,7 +8039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>442</v>
       </c>
@@ -8054,7 +8053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>443</v>
       </c>
@@ -8068,7 +8067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>445</v>
       </c>
@@ -8082,7 +8081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>447</v>
       </c>
@@ -8096,7 +8095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>699</v>
       </c>
@@ -8110,7 +8109,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>701</v>
       </c>
@@ -8124,7 +8123,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>702</v>
       </c>
@@ -8138,7 +8137,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>704</v>
       </c>
@@ -8152,7 +8151,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>448</v>
       </c>
@@ -8166,7 +8165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>706</v>
       </c>
@@ -8180,7 +8179,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>450</v>
       </c>
@@ -8194,7 +8193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>707</v>
       </c>
@@ -8208,7 +8207,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>709</v>
       </c>
@@ -8222,7 +8221,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>711</v>
       </c>
@@ -8236,7 +8235,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>712</v>
       </c>
@@ -8250,7 +8249,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>714</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>715</v>
       </c>
@@ -8278,7 +8277,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>717</v>
       </c>
@@ -8292,7 +8291,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>718</v>
       </c>
@@ -8306,7 +8305,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>720</v>
       </c>
@@ -8320,7 +8319,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>722</v>
       </c>
@@ -8334,7 +8333,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>724</v>
       </c>
@@ -8348,7 +8347,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>726</v>
       </c>
@@ -8362,7 +8361,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>452</v>
       </c>
@@ -8376,7 +8375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>454</v>
       </c>
@@ -8390,7 +8389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>727</v>
       </c>
@@ -8404,7 +8403,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>729</v>
       </c>
@@ -8418,7 +8417,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>730</v>
       </c>
@@ -8432,7 +8431,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>732</v>
       </c>
@@ -8446,7 +8445,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>455</v>
       </c>
@@ -8460,7 +8459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>733</v>
       </c>
@@ -8474,7 +8473,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>735</v>
       </c>
@@ -8488,7 +8487,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>736</v>
       </c>
@@ -8502,7 +8501,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>738</v>
       </c>
@@ -8516,7 +8515,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>739</v>
       </c>
@@ -8530,7 +8529,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>741</v>
       </c>
@@ -8544,7 +8543,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>742</v>
       </c>
@@ -8558,7 +8557,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>744</v>
       </c>
@@ -8572,7 +8571,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>745</v>
       </c>
@@ -8586,7 +8585,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>457</v>
       </c>
@@ -8600,7 +8599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>746</v>
       </c>
@@ -8614,7 +8613,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>748</v>
       </c>
@@ -8628,7 +8627,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>459</v>
       </c>
@@ -8642,7 +8641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>461</v>
       </c>
@@ -8656,7 +8655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>462</v>
       </c>
@@ -8670,7 +8669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>464</v>
       </c>
@@ -8684,7 +8683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>466</v>
       </c>
@@ -8698,7 +8697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>467</v>
       </c>
@@ -8712,7 +8711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>469</v>
       </c>
@@ -8726,7 +8725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>470</v>
       </c>
@@ -8740,7 +8739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>472</v>
       </c>
@@ -8754,7 +8753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>474</v>
       </c>
@@ -8768,7 +8767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>749</v>
       </c>
@@ -8782,7 +8781,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>476</v>
       </c>
@@ -8796,7 +8795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>478</v>
       </c>
@@ -8810,7 +8809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>480</v>
       </c>
@@ -8824,7 +8823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>482</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>483</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>485</v>
       </c>
@@ -8866,7 +8865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>487</v>
       </c>
@@ -8880,7 +8879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>489</v>
       </c>
@@ -8894,7 +8893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>750</v>
       </c>
@@ -8908,7 +8907,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>490</v>
       </c>
@@ -8922,7 +8921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>752</v>
       </c>
@@ -8936,7 +8935,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>492</v>
       </c>
@@ -8950,7 +8949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>494</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>495</v>
       </c>
@@ -8978,7 +8977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>753</v>
       </c>
@@ -8992,7 +8991,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>497</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>754</v>
       </c>
@@ -9020,7 +9019,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>499</v>
       </c>
@@ -9034,7 +9033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>501</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>755</v>
       </c>
@@ -9062,7 +9061,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>503</v>
       </c>
@@ -9076,7 +9075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>505</v>
       </c>
@@ -9090,7 +9089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>506</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>508</v>
       </c>
@@ -9118,7 +9117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>510</v>
       </c>
@@ -9132,7 +9131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>756</v>
       </c>
@@ -9146,7 +9145,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>512</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>514</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>515</v>
       </c>
@@ -9188,7 +9187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>517</v>
       </c>
@@ -9202,7 +9201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>758</v>
       </c>
@@ -9216,7 +9215,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>760</v>
       </c>
@@ -9230,7 +9229,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>518</v>
       </c>
@@ -9244,7 +9243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>520</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>522</v>
       </c>
@@ -9272,7 +9271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>523</v>
       </c>
@@ -9286,7 +9285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>525</v>
       </c>
@@ -9300,7 +9299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>526</v>
       </c>
@@ -9314,7 +9313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>761</v>
       </c>
@@ -9328,7 +9327,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>528</v>
       </c>
@@ -9342,7 +9341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>762</v>
       </c>
@@ -9356,7 +9355,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>764</v>
       </c>
@@ -9370,7 +9369,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>766</v>
       </c>
@@ -9384,7 +9383,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>768</v>
       </c>
@@ -9398,7 +9397,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>770</v>
       </c>
@@ -9412,7 +9411,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>531</v>
       </c>
@@ -9426,7 +9425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>771</v>
       </c>
@@ -9440,7 +9439,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>533</v>
       </c>
@@ -9454,7 +9453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1036</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>535</v>
       </c>
@@ -9482,7 +9481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>772</v>
       </c>
@@ -9496,7 +9495,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>537</v>
       </c>
@@ -9510,7 +9509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>539</v>
       </c>
@@ -9524,7 +9523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>540</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>542</v>
       </c>
@@ -9552,7 +9551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>543</v>
       </c>
@@ -9566,7 +9565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>773</v>
       </c>
@@ -9580,7 +9579,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>774</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>545</v>
       </c>
@@ -9608,7 +9607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>547</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>549</v>
       </c>
@@ -9636,7 +9635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>551</v>
       </c>
@@ -9650,7 +9649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>552</v>
       </c>
@@ -9664,7 +9663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>554</v>
       </c>
@@ -9678,7 +9677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>555</v>
       </c>
@@ -9692,7 +9691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>557</v>
       </c>
@@ -9706,7 +9705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>558</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>775</v>
       </c>
@@ -9734,7 +9733,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>560</v>
       </c>
@@ -9748,7 +9747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>562</v>
       </c>
@@ -9762,7 +9761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>564</v>
       </c>
@@ -9776,7 +9775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>565</v>
       </c>
@@ -9790,7 +9789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>567</v>
       </c>
@@ -9804,7 +9803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>568</v>
       </c>
@@ -9818,7 +9817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>570</v>
       </c>
@@ -9832,7 +9831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>571</v>
       </c>
@@ -9846,7 +9845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>573</v>
       </c>
@@ -9860,7 +9859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>574</v>
       </c>
@@ -9874,7 +9873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>576</v>
       </c>
@@ -9888,7 +9887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>777</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>577</v>
       </c>
@@ -9916,7 +9915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>579</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>581</v>
       </c>
@@ -9944,7 +9943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>582</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>584</v>
       </c>
@@ -9972,7 +9971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>586</v>
       </c>
@@ -9986,7 +9985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>587</v>
       </c>
@@ -10000,7 +9999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1037</v>
       </c>
@@ -10014,7 +10013,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>588</v>
       </c>
@@ -10028,7 +10027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>779</v>
       </c>
@@ -10042,7 +10041,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>589</v>
       </c>
@@ -10056,7 +10055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>780</v>
       </c>
@@ -10070,7 +10069,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>590</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>592</v>
       </c>
@@ -10098,7 +10097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>594</v>
       </c>
@@ -10112,7 +10111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>596</v>
       </c>
@@ -10126,7 +10125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>597</v>
       </c>
@@ -10140,7 +10139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>598</v>
       </c>
@@ -10154,7 +10153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>599</v>
       </c>
@@ -10168,7 +10167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>781</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>782</v>
       </c>
@@ -10196,7 +10195,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>783</v>
       </c>
@@ -10210,7 +10209,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>600</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>601</v>
       </c>
@@ -10238,7 +10237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>602</v>
       </c>
@@ -10253,13 +10252,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D483" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="NOLV"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D483" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D483">
     <sortCondition ref="A2:A483"/>
   </sortState>
@@ -10270,21 +10263,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="126" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1031</v>
       </c>
@@ -10298,7 +10290,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>784</v>
       </c>
@@ -10312,7 +10304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>785</v>
       </c>
@@ -10326,7 +10318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>786</v>
       </c>
@@ -10340,7 +10332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>788</v>
       </c>
@@ -10354,7 +10346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>789</v>
       </c>
@@ -10368,7 +10360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>790</v>
       </c>
@@ -10382,7 +10374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>791</v>
       </c>
@@ -10396,7 +10388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>793</v>
       </c>
@@ -10410,7 +10402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>794</v>
       </c>
@@ -10424,7 +10416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>795</v>
       </c>
@@ -10438,7 +10430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>878</v>
       </c>
@@ -10452,7 +10444,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>879</v>
       </c>
@@ -10466,7 +10458,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>880</v>
       </c>
@@ -10480,7 +10472,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>881</v>
       </c>
@@ -10494,7 +10486,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>796</v>
       </c>
@@ -10508,7 +10500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>797</v>
       </c>
@@ -10522,7 +10514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>798</v>
       </c>
@@ -10536,7 +10528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>799</v>
       </c>
@@ -10550,7 +10542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>800</v>
       </c>
@@ -10564,7 +10556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>801</v>
       </c>
@@ -10578,7 +10570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>883</v>
       </c>
@@ -10592,7 +10584,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>802</v>
       </c>
@@ -10606,7 +10598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>804</v>
       </c>
@@ -10620,7 +10612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>806</v>
       </c>
@@ -10634,7 +10626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>807</v>
       </c>
@@ -10648,7 +10640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>808</v>
       </c>
@@ -10662,7 +10654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>809</v>
       </c>
@@ -10676,7 +10668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>811</v>
       </c>
@@ -10690,7 +10682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>884</v>
       </c>
@@ -10704,7 +10696,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>812</v>
       </c>
@@ -10718,7 +10710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>814</v>
       </c>
@@ -10732,7 +10724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>815</v>
       </c>
@@ -10746,7 +10738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>816</v>
       </c>
@@ -10760,7 +10752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>817</v>
       </c>
@@ -10774,7 +10766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>818</v>
       </c>
@@ -10788,7 +10780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>819</v>
       </c>
@@ -10802,7 +10794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>820</v>
       </c>
@@ -10816,7 +10808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>821</v>
       </c>
@@ -10830,7 +10822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>822</v>
       </c>
@@ -10844,7 +10836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>885</v>
       </c>
@@ -10858,7 +10850,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>823</v>
       </c>
@@ -10872,7 +10864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>824</v>
       </c>
@@ -10886,7 +10878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>886</v>
       </c>
@@ -10900,7 +10892,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>825</v>
       </c>
@@ -10914,7 +10906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>826</v>
       </c>
@@ -10928,7 +10920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>828</v>
       </c>
@@ -10942,7 +10934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>829</v>
       </c>
@@ -10956,7 +10948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>830</v>
       </c>
@@ -10970,7 +10962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>831</v>
       </c>
@@ -10984,7 +10976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>832</v>
       </c>
@@ -10998,7 +10990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>833</v>
       </c>
@@ -11012,7 +11004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>835</v>
       </c>
@@ -11026,7 +11018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>887</v>
       </c>
@@ -11040,7 +11032,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>836</v>
       </c>
@@ -11054,7 +11046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>837</v>
       </c>
@@ -11068,7 +11060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>838</v>
       </c>
@@ -11082,7 +11074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>840</v>
       </c>
@@ -11096,7 +11088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>842</v>
       </c>
@@ -11110,7 +11102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>843</v>
       </c>
@@ -11124,7 +11116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>888</v>
       </c>
@@ -11138,7 +11130,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>890</v>
       </c>
@@ -11152,7 +11144,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>891</v>
       </c>
@@ -11166,7 +11158,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>844</v>
       </c>
@@ -11180,7 +11172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>892</v>
       </c>
@@ -11194,7 +11186,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>894</v>
       </c>
@@ -11208,7 +11200,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>846</v>
       </c>
@@ -11222,7 +11214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>895</v>
       </c>
@@ -11236,7 +11228,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>897</v>
       </c>
@@ -11250,7 +11242,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>898</v>
       </c>
@@ -11264,7 +11256,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>847</v>
       </c>
@@ -11278,7 +11270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>899</v>
       </c>
@@ -11292,7 +11284,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>901</v>
       </c>
@@ -11306,7 +11298,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>903</v>
       </c>
@@ -11320,7 +11312,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>848</v>
       </c>
@@ -11334,7 +11326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>850</v>
       </c>
@@ -11348,7 +11340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>851</v>
       </c>
@@ -11362,7 +11354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>852</v>
       </c>
@@ -11376,7 +11368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>853</v>
       </c>
@@ -11390,7 +11382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>854</v>
       </c>
@@ -11404,7 +11396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>856</v>
       </c>
@@ -11418,7 +11410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>857</v>
       </c>
@@ -11432,7 +11424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>858</v>
       </c>
@@ -11446,7 +11438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>860</v>
       </c>
@@ -11460,7 +11452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>904</v>
       </c>
@@ -11474,7 +11466,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1040</v>
       </c>
@@ -11488,7 +11480,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>861</v>
       </c>
@@ -11502,7 +11494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>862</v>
       </c>
@@ -11516,7 +11508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>864</v>
       </c>
@@ -11530,7 +11522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>865</v>
       </c>
@@ -11544,7 +11536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>905</v>
       </c>
@@ -11558,7 +11550,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>907</v>
       </c>
@@ -11572,7 +11564,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>867</v>
       </c>
@@ -11586,7 +11578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>868</v>
       </c>
@@ -11600,7 +11592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>869</v>
       </c>
@@ -11614,7 +11606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>870</v>
       </c>
@@ -11628,7 +11620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>872</v>
       </c>
@@ -11642,7 +11634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>873</v>
       </c>
@@ -11656,7 +11648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>874</v>
       </c>
@@ -11670,7 +11662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>908</v>
       </c>
@@ -11684,7 +11676,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>909</v>
       </c>
@@ -11698,7 +11690,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>875</v>
       </c>
@@ -11712,7 +11704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>877</v>
       </c>
@@ -11727,13 +11719,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D103" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="OLV"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D103" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D103">
     <sortCondition ref="A2:A103"/>
   </sortState>
@@ -11746,18 +11732,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="104.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="104.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1031</v>
       </c>
@@ -11771,7 +11757,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>910</v>
       </c>
@@ -11785,7 +11771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>911</v>
       </c>
@@ -11799,7 +11785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>912</v>
       </c>
@@ -11813,7 +11799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>913</v>
       </c>
@@ -11827,7 +11813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>914</v>
       </c>
@@ -11841,7 +11827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>915</v>
       </c>
@@ -11855,7 +11841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>916</v>
       </c>
@@ -11869,7 +11855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>918</v>
       </c>
@@ -11883,7 +11869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>919</v>
       </c>
@@ -11897,7 +11883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>920</v>
       </c>
@@ -11911,7 +11897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>921</v>
       </c>
@@ -11925,7 +11911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>922</v>
       </c>
@@ -11939,7 +11925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>923</v>
       </c>
@@ -11953,7 +11939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>924</v>
       </c>
@@ -11967,7 +11953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>925</v>
       </c>
@@ -11981,7 +11967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>994</v>
       </c>
@@ -11995,7 +11981,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>926</v>
       </c>
@@ -12009,7 +11995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>928</v>
       </c>
@@ -12023,7 +12009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>995</v>
       </c>
@@ -12037,7 +12023,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>997</v>
       </c>
@@ -12051,7 +12037,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>929</v>
       </c>
@@ -12065,7 +12051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>998</v>
       </c>
@@ -12079,7 +12065,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>930</v>
       </c>
@@ -12093,7 +12079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>931</v>
       </c>
@@ -12107,7 +12093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>932</v>
       </c>
@@ -12121,7 +12107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>934</v>
       </c>
@@ -12135,7 +12121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>935</v>
       </c>
@@ -12149,7 +12135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>936</v>
       </c>
@@ -12163,7 +12149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>999</v>
       </c>
@@ -12177,7 +12163,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>937</v>
       </c>
@@ -12191,7 +12177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>938</v>
       </c>
@@ -12205,7 +12191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>940</v>
       </c>
@@ -12219,7 +12205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>941</v>
       </c>
@@ -12233,7 +12219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>942</v>
       </c>
@@ -12247,7 +12233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1000</v>
       </c>
@@ -12261,7 +12247,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>943</v>
       </c>
@@ -12275,7 +12261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>944</v>
       </c>
@@ -12289,7 +12275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>945</v>
       </c>
@@ -12303,7 +12289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>946</v>
       </c>
@@ -12317,7 +12303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>947</v>
       </c>
@@ -12331,7 +12317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>948</v>
       </c>
@@ -12345,7 +12331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1001</v>
       </c>
@@ -12359,7 +12345,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>949</v>
       </c>
@@ -12373,7 +12359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>950</v>
       </c>
@@ -12387,7 +12373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>951</v>
       </c>
@@ -12401,7 +12387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>952</v>
       </c>
@@ -12415,7 +12401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1002</v>
       </c>
@@ -12429,7 +12415,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1003</v>
       </c>
@@ -12443,7 +12429,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>953</v>
       </c>
@@ -12457,7 +12443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>955</v>
       </c>
@@ -12471,7 +12457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>956</v>
       </c>
@@ -12485,7 +12471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1004</v>
       </c>
@@ -12499,7 +12485,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>957</v>
       </c>
@@ -12513,7 +12499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>958</v>
       </c>
@@ -12527,7 +12513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>959</v>
       </c>
@@ -12541,7 +12527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>960</v>
       </c>
@@ -12555,7 +12541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>961</v>
       </c>
@@ -12569,7 +12555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>962</v>
       </c>
@@ -12583,7 +12569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>963</v>
       </c>
@@ -12597,7 +12583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1005</v>
       </c>
@@ -12611,7 +12597,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>964</v>
       </c>
@@ -12625,7 +12611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>966</v>
       </c>
@@ -12639,7 +12625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1006</v>
       </c>
@@ -12653,7 +12639,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>967</v>
       </c>
@@ -12667,7 +12653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>968</v>
       </c>
@@ -12681,7 +12667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>969</v>
       </c>
@@ -12695,7 +12681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>970</v>
       </c>
@@ -12709,7 +12695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>971</v>
       </c>
@@ -12723,7 +12709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>972</v>
       </c>
@@ -12737,7 +12723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>973</v>
       </c>
@@ -12751,7 +12737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1007</v>
       </c>
@@ -12765,7 +12751,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1008</v>
       </c>
@@ -12779,7 +12765,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>974</v>
       </c>
@@ -12793,7 +12779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>975</v>
       </c>
@@ -12807,7 +12793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1009</v>
       </c>
@@ -12821,7 +12807,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1010</v>
       </c>
@@ -12835,7 +12821,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1011</v>
       </c>
@@ -12849,7 +12835,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1013</v>
       </c>
@@ -12863,7 +12849,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1014</v>
       </c>
@@ -12877,7 +12863,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1015</v>
       </c>
@@ -12891,7 +12877,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1016</v>
       </c>
@@ -12905,7 +12891,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1017</v>
       </c>
@@ -12919,7 +12905,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1018</v>
       </c>
@@ -12933,7 +12919,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>976</v>
       </c>
@@ -12947,7 +12933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1019</v>
       </c>
@@ -12961,7 +12947,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>977</v>
       </c>
@@ -12975,7 +12961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>978</v>
       </c>
@@ -12989,7 +12975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>979</v>
       </c>
@@ -13003,7 +12989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>980</v>
       </c>
@@ -13017,7 +13003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>981</v>
       </c>
@@ -13031,7 +13017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>982</v>
       </c>
@@ -13045,7 +13031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1035</v>
       </c>
@@ -13059,7 +13045,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>983</v>
       </c>
@@ -13073,7 +13059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>984</v>
       </c>
@@ -13087,7 +13073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>985</v>
       </c>
@@ -13101,7 +13087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1020</v>
       </c>
@@ -13115,7 +13101,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>986</v>
       </c>
@@ -13129,7 +13115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>987</v>
       </c>
@@ -13143,7 +13129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>988</v>
       </c>
@@ -13157,7 +13143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>990</v>
       </c>
@@ -13171,7 +13157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1021</v>
       </c>
@@ -13185,7 +13171,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>991</v>
       </c>
@@ -13199,7 +13185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>992</v>
       </c>
@@ -13213,7 +13199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>993</v>
       </c>
